--- a/biology/Neurosciences/Masao_Itō/Masao_Itō.xlsx
+++ b/biology/Neurosciences/Masao_Itō/Masao_Itō.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Masao_It%C5%8D</t>
+          <t>Masao_Itō</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Masao Itō  (伊藤正男, Itō Masao?), né le 4 décembre 1928 à Nagoya et mort le 18 décembre 2018[1], est un neuroscientifique japonais et directeur de l'institut RIKEN des sciences du cerveau[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Masao Itō  (伊藤正男, Itō Masao?), né le 4 décembre 1928 à Nagoya et mort le 18 décembre 2018, est un neuroscientifique japonais et directeur de l'institut RIKEN des sciences du cerveau. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Masao_It%C5%8D</t>
+          <t>Masao_Itō</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Masao Ito est diplômé de l'université de Tokyo avec un M.D. en 1953 et un Ph.D. en 1959. Il est chercheur à l'université nationale australienne de 1959 à 1962 et enseigne à l'université de Tokyo à partir de 1963[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Masao Ito est diplômé de l'université de Tokyo avec un M.D. en 1953 et un Ph.D. en 1959. Il est chercheur à l'université nationale australienne de 1959 à 1962 et enseigne à l'université de Tokyo à partir de 1963.
 Il a proposé plusieurs hypothèses concernant le fonctionnement du cervelet et des cellules de Purkinje. En effet, il considère le cervelet comme une "machine à apprendre" via un système essai-erreur. Les fibres grimpantes du cervelet relaieraient des messages d'erreurs aux cellules de Purkinje, participant ainsi à un mécanisme d'apprentissage par essai-erreur.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Masao_It%C5%8D</t>
+          <t>Masao_Itō</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Masao Itō remporte le prix Gruber des neurosciences en 2006[4] et le prix japonais en 1996[5]. Il est élu membre étranger de la Royal Society en 1992[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Masao Itō remporte le prix Gruber des neurosciences en 2006 et le prix japonais en 1996. Il est élu membre étranger de la Royal Society en 1992.
 </t>
         </is>
       </c>
